--- a/biology/Botanique/Tillandsia_capillaris/Tillandsia_capillaris.xlsx
+++ b/biology/Botanique/Tillandsia_capillaris/Tillandsia_capillaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia capillaris Ruiz &amp; Pav. est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète capillaris signifie « comme des cheveux » et est soit une allusion à l'aspect du feuillage, soit une allusion à la finesse des tiges florales, le protologue ne le précise pas.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia capillaris Ruiz &amp; Pav., Fl. Per. 3: 42, n° 9, tab. 271c (1802)
-Diagnose originale[1] :
+Diagnose originale :
 « T. pedunculo subunifloro capillari foliis triplo longiori glabro, foliis lineari-subulatis, caule dichotomo. »
 Type : Ruiz &amp; Pav., Fl. Per. : tab. 271c (1802)
 leg. L. Ruiz, s.n., s.t. ; « In Peruvia ad Huanuco, Passazahuas » ; Lectotypus BM (British National History Museum)
@@ -551,20 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Diaphoranthema capillaris (Ruiz &amp; Pav.) Beer
-Synonymie taxonomique
-Tillandsia cordobensis Hieron[2].
-Tillandsia dependens Hieron[2].
-Tillandsia hieronymii Mez[2]
-Tillandsia incana Gillies ex Baker[2]
-Tillandsia lanuginosa Gillies ex Baker[2]
-Tillandsia propinqua Gay[2]
-Tillandsia pusilla Gillies ex Baker[2]
-Tillandsia stolpi Phil[2].
-Tillandsia virescens Ruiz &amp; Pav[2].
-Diaphoranthema virescens (Ruiz &amp; Pav.) Beer
-Tillandsia williamsii Rusby[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diaphoranthema capillaris (Ruiz &amp; Pav.) Beer</t>
         </is>
       </c>
     </row>
@@ -589,10 +596,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia cordobensis Hieron.
+Tillandsia dependens Hieron.
+Tillandsia hieronymii Mez
+Tillandsia incana Gillies ex Baker
+Tillandsia lanuginosa Gillies ex Baker
+Tillandsia propinqua Gay
+Tillandsia pusilla Gillies ex Baker
+Tillandsia stolpi Phil.
+Tillandsia virescens Ruiz &amp; Pav.
+Diaphoranthema virescens (Ruiz &amp; Pav.) Beer
+Tillandsia williamsii Rusby</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -615,16 +642,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée acaule ; épiphyte[1],[3],[4] ou saxicole[1],[3].
-Habitat : sur des supports variés tels que murs[1], rochers[1], arbres[2], buissons[2], cactées[2].
-Altitude : depuis la côte jusqu'aux hautes Andes[2],[4].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,22 +670,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Du Mexique au Pérou[2].
-Amérique centrale :
- Mexique[2]
-Amérique du Sud :
- Argentine[2],[4]
-Jujuy[3]
-Córdoba[3]
- Bolivie[5],[2],[4]
- Chili[2]
- Équateur[4]
- Pérou[1],[3],[4]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée acaule ; épiphyte ou saxicole,.
+Habitat : sur des supports variés tels que murs, rochers, arbres, buissons, cactées.
+Altitude : depuis la côte jusqu'aux hautes Andes,.</t>
         </is>
       </c>
     </row>
@@ -687,13 +704,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia capillaris est de culture facile et de croissance rapide[2].
-</t>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Du Mexique au Pérou.
+Amérique centrale :
+ Mexique
+Amérique du Sud :
+ Argentine,
+Jujuy
+Córdoba
+ Bolivie
+ Chili
+ Équateur
+ Pérou</t>
         </is>
       </c>
     </row>
@@ -718,82 +746,364 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris est de culture facile et de croissance rapide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia capillaris f. capillaris
-(autonyme)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. capillaris</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
 Synonymie :
-Tillandsia lanuginosa Gillies ex Baker[4]
+Tillandsia lanuginosa Gillies ex Baker
 Tillandsia capillaris var. lanuginosa (Gillies ex Baker) Mez
 Tillandsia capillaris f. typica L.B.Sm.
 Distribution :
- Argentine[4]
- Bolivie[4]
- Chili[4]
- Pérou[4]
-Tillandsia capillaris f. cordobensis (Hieron.) L.B.Sm.
-Tillandsia capillaris f. cordobensis (Hieron.) L.B.Sm., in Contr. Gray Herb. 106: 211 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
+ Argentine
+ Bolivie
+ Chili
+ Pérou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. cordobensis (Hieron.) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris f. cordobensis (Hieron.) L.B.Sm., in Contr. Gray Herb. 106: 211 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
 Synonymie :
 [ basionyme ] Tillandsia cordobensis Hieron.
 Distribution :
- Argentine[4]
- Bolivie[4]
- Chili[4]
- Pérou[4]
-Tillandsia capillaris f. hieronymii (Mez) L.B.Sm.
-Tillandsia capillaris f. hieronymi (Mez) L.B.Sm., in Contr. Gray Herb. 106: 213 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
+ Argentine
+ Bolivie
+ Chili
+ Pérou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. hieronymii (Mez) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. hieronymi (Mez) L.B.Sm., in Contr. Gray Herb. 106: 213 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
 Synonymie :
 [ basionyme ] Tillandsia hieronymii Mez
 Distribution :
  Argentine
-NW de l'Argentine[4]
- Bolivie[4]
-Tillandsia capillaris var. incana Mez
-Tillandsia capillaris [var.] [gamma] incana Mez in C.DC., Monogr. Phan. 9: 879, n° 245 (1896)
-Diagnose originale[3] :
+NW de l'Argentine
+ Bolivie</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris var. incana Mez</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris [var.] [gamma] incana Mez in C.DC., Monogr. Phan. 9: 879, n° 245 (1896)
+Diagnose originale :
 « caule subsimplici ; foliis multo crassioribus (usque ad 3 mm. diam. metientibus), apice permanifeste acuteque mucronulatis ; scapo saepius bifloro. »
-Type : Mez[3] cite deux spécimens différents et trois herbiers :
+Type : Mez cite deux spécimens différents et trois herbiers :
 - leg. Hieronymus ; « Argentina, prov. Cordoba in Sierra Achala inter Tanti Cuchi del Rosario et Rio Juspe ».
 - leg. Gillies ; « prov. Mendoza in Cordillera »"
 « herb. Berol., Florent., Kew » . Comme ce taxon est rattaché à un nomen nudum de Baker attribué à Gillies, l'holotype est en toute logique le spécimen récolté par Gillies mais sa désignation n'est pas explicite.
 Synonymie :
-Tillandsia incana Gillies ex Baker[3] [nom. nud.]
-Tillandsia permutata Cast[4].
-Tillandsia propinqua var. saxicola Hieron[4].
-Tillandsia virescens Ruiz &amp; Pav[3].
+Tillandsia incana Gillies ex Baker [nom. nud.]
+Tillandsia permutata Cast.
+Tillandsia propinqua var. saxicola Hieron.
+Tillandsia virescens Ruiz &amp; Pav.
 Distribution :
  Argentine
-Córdoba[3]
-Mendoza[3]
- Bolivie[4]
-Tillandsia capillaris f. incana (Mez) L.B.Sm.
-Tillandsia capillaris f. incana (Mez) L.B.Sm., in Contr. Gray Herb. 106: 211 (1935) ; et in Proc. Am. Acad.' 70(5) (1935)
+Córdoba
+Mendoza
+ Bolivie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. incana (Mez) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris f. incana (Mez) L.B.Sm., in Contr. Gray Herb. 106: 211 (1935) ; et in Proc. Am. Acad.' 70(5) (1935)
 Synonymie :
 [ basionyme] ] Tillandsia capillaris var. incana Mez
 Distribution : (voir ci-dessus à var. incana)
-Tillandsia capillaris var. lanuginosa (Gillies ex Baker) Mez
-Tillandsia capillaris [var.] [beta] lanuginosa (Gillies ex Baker) Mez in C.DC., Monogr. Phan. 9: 879 (1896)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris var. lanuginosa (Gillies ex Baker) Mez</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris [var.] [beta] lanuginosa (Gillies ex Baker) Mez in C.DC., Monogr. Phan. 9: 879 (1896)
 Synonymie :
 [ basionyme ] Tillandsia lanuginosa Gillies ex Baker
 Distribution :
  Argentine
-Mendoza[3]
-Tillandsia capillaris f. typica L.B.Sm.
-Tillandsia capillaris f. typica L.B.Sm., in Contr. Gray Herb. 106: 210 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
+Mendoza
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. typica L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris f. typica L.B.Sm., in Contr. Gray Herb. 106: 210 (1935) ; et in Proc. Am. Acad. 70(5) (1935)
 Synonymie :
 Tillandsia capillaris f. capillaris
-Tillandsia capillaris f. virescens L.B.Sm.
-Tillandsia capillaris f. virescens (Ruiz. &amp; Pav.) L.B.Sm., in Contr. Gray Herb. 106: 212 (1935) ; et in Proc. Amer. Acad. 70(5) (1935)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_capillaris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris f. virescens L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia capillaris f. virescens (Ruiz. &amp; Pav.) L.B.Sm., in Contr. Gray Herb. 106: 212 (1935) ; et in Proc. Amer. Acad. 70(5) (1935)
 Synonymie :
 [ basionyme ] Tillandsia virescens Ruiz &amp; Pav.
 Distribution :
- Argentine[4]
- Bolivie[4]
- Chili[4]
- Pérou[4]
+ Argentine
+ Bolivie
+ Chili
+ Pérou
 </t>
         </is>
       </c>
